--- a/data/trans_camb/P1427-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1427-Dificultad-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>-1.894082743788574</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7188210948673723</v>
+        <v>0.718821094867373</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-0.1509639343388311</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.27805321515076</v>
+        <v>2.278053215150762</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.969932633762682</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.60345964916079</v>
+        <v>1.603459649160792</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.073695427433955</v>
+        <v>-3.096277565401705</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.064541225023403</v>
+        <v>-0.9076610735689096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.666021442861483</v>
+        <v>-1.523495220831566</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4830707071657486</v>
+        <v>0.6579639324070398</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.812217846198104</v>
+        <v>-1.817494757448842</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4380829601712045</v>
+        <v>0.3391461185818856</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.8259881149957901</v>
+        <v>-0.8186884750776671</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.254561589393518</v>
+        <v>2.590050726286344</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.29755600463452</v>
+        <v>1.325807646288189</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.898713930931223</v>
+        <v>4.332409519221448</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.02331553493997505</v>
+        <v>-0.07986564154529494</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.749962610577627</v>
+        <v>2.770811681258251</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.7440559353891738</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.28237578525699</v>
+        <v>0.2823757852569903</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.05049342875789057</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.761948330438492</v>
+        <v>0.7619483304384926</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3494787803062252</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5777464361468948</v>
+        <v>0.5777464361468954</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8939951620554382</v>
+        <v>-0.893650660977637</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3596145558046172</v>
+        <v>-0.3050522416043552</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4567394349921883</v>
+        <v>-0.4208040800696716</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1169167325180618</v>
+        <v>0.1291798241195371</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5653020549440083</v>
+        <v>-0.561621379677521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1215726350370974</v>
+        <v>0.07955108347972259</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3796398058340113</v>
+        <v>-0.38905222817395</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.193708164459038</v>
+        <v>1.394024350520434</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5654937947315705</v>
+        <v>0.607466813001338</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.727527828312795</v>
+        <v>1.910097715539972</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.01332199992713513</v>
+        <v>-0.02548477618377983</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.226690144474882</v>
+        <v>1.202925007773011</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>-0.8654843264315863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.965195924768555</v>
+        <v>1.965195924768554</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.4870620251713645</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.234620527313502</v>
+        <v>-1.14168181442084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7078419665421368</v>
+        <v>0.6033803086044499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.227691863744278</v>
+        <v>-2.217670042508855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5475549812668433</v>
+        <v>0.575820309946369</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.377701446459626</v>
+        <v>-1.374065034816656</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.093770115240409</v>
+        <v>1.085733819452293</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9620217543806191</v>
+        <v>0.9304231787637885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.134074059683138</v>
+        <v>3.092427991017089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3868474027170485</v>
+        <v>0.4659322674076095</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.390225156093953</v>
+        <v>3.435588850808208</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3664806991256266</v>
+        <v>0.4017563002951111</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.972694084612029</v>
+        <v>2.946830378454125</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>-0.320562850147646</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.7278800869100936</v>
+        <v>0.7278800869100931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2346069472145589</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.626021876350784</v>
+        <v>-0.5579407363829174</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1822907726798889</v>
+        <v>0.2586697017635082</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6514165368621825</v>
+        <v>-0.6420933009611449</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.134687876646882</v>
+        <v>0.1355165795576377</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5203496893341278</v>
+        <v>-0.5426984725516483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3804439597572864</v>
+        <v>0.3885670137794968</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.139984719171047</v>
+        <v>1.279584157927333</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.563377131822141</v>
+        <v>3.808810292316643</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2152220590195176</v>
+        <v>0.2990775245502702</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.6864580353044</v>
+        <v>1.761789692267334</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2485530211319655</v>
+        <v>0.2578338749764293</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.905305473691065</v>
+        <v>1.861850349687473</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-0.7223043914835158</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3639894879009464</v>
+        <v>0.3639894879009457</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-1.13632054373121</v>
@@ -944,7 +944,7 @@
         <v>-0.9293096616072168</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8229558288368567</v>
+        <v>0.8229558288368564</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.896046180518739</v>
+        <v>-2.082778786091832</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9556073742731149</v>
+        <v>-0.8429212110579981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.551990227563063</v>
+        <v>-2.573110079129114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3753245439981504</v>
+        <v>-0.3291111406287644</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.852946249537185</v>
+        <v>-1.874453198923114</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2914999240040979</v>
+        <v>-0.1333713649413885</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4213922940947886</v>
+        <v>0.4364497340173443</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.515120851638399</v>
+        <v>1.572525388668192</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2348899673642078</v>
+        <v>0.3996010696194417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.62367795589804</v>
+        <v>2.661511941797519</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.02779465815686626</v>
+        <v>0.04087072986924385</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.677237151145682</v>
+        <v>1.757202452937067</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.3624894178617336</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1826686077679977</v>
+        <v>0.1826686077679973</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.4572005347915178</v>
@@ -1022,7 +1022,7 @@
         <v>-0.4152966443457942</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3677684718887724</v>
+        <v>0.3677684718887723</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7004994081201944</v>
+        <v>-0.7310082023354161</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3589130296050178</v>
+        <v>-0.2997566351424313</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7906409906862945</v>
+        <v>-0.7695726081066304</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1073529725038042</v>
+        <v>-0.1079389848990347</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6716948110401977</v>
+        <v>-0.6618942888757813</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1099979176549564</v>
+        <v>-0.04711266106585409</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3648995664552253</v>
+        <v>0.4394479363547185</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.149882642676808</v>
+        <v>1.262642393808618</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2691519927285566</v>
+        <v>0.3600982402874949</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.601554203054201</v>
+        <v>1.565855157485635</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03149523352413616</v>
+        <v>0.08870829328026043</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9759311477156156</v>
+        <v>1.039236271303658</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-0.9417325494237636</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.724538653236638</v>
+        <v>1.724538653236637</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.9396456938529967</v>
@@ -1104,7 +1104,7 @@
         <v>-0.01678825003891236</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.976811325965923</v>
+        <v>1.976811325965922</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.730194124405445</v>
+        <v>-2.810735000217773</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4401511014627597</v>
+        <v>-0.2763915892383297</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.176474499713646</v>
+        <v>-1.302619273441067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07559193935118021</v>
+        <v>0.243670193758212</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.387916620488414</v>
+        <v>-1.416570488015111</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4031991105519254</v>
+        <v>0.744833260959337</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6395751379893494</v>
+        <v>0.5753982950999724</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.392833497121746</v>
+        <v>3.321955237193443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.347349086110663</v>
+        <v>3.277618550385857</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.902810243186289</v>
+        <v>3.981338911866789</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.353295822512828</v>
+        <v>1.338389315603212</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.11003081159463</v>
+        <v>3.265195747549492</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>-0.4599420856269934</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.8422645106610885</v>
+        <v>0.8422645106610882</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.4550734267574807</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1.088483369435208</v>
+        <v>1.088483369435207</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.008166656409374669</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9616213034655239</v>
+        <v>0.9616213034655235</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8469034442414324</v>
+        <v>-0.8640239430302397</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1764359083441547</v>
+        <v>-0.1192684772491317</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4740988569342801</v>
+        <v>-0.4852638677596396</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03344116067259868</v>
+        <v>0.006775369004678154</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5127919503285332</v>
+        <v>-0.5215241722264028</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09562668010446879</v>
+        <v>0.2190014790260748</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8281014328679925</v>
+        <v>0.6076009027987996</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.606291667440943</v>
+        <v>3.245296414065692</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.055131527868765</v>
+        <v>3.536844313237852</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.459793692692591</v>
+        <v>3.812193946978421</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.919780688806724</v>
+        <v>0.9947531749245181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.297500728668451</v>
+        <v>2.652035163281548</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.591293013578621</v>
+        <v>-1.561839093853021</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3962069901304839</v>
+        <v>0.431373429236342</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.158628175112979</v>
+        <v>-1.248560450490648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.048667642548612</v>
+        <v>0.9719847024799194</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.17421214563275</v>
+        <v>-1.128874775611743</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8713260563990001</v>
+        <v>0.9316127307770581</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.389194225859812</v>
+        <v>-0.4308804857210503</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.884761472026989</v>
+        <v>1.833274566539337</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3532204865854242</v>
+        <v>0.3351134755973805</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.548870010041935</v>
+        <v>2.567574364618613</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.1826342053173175</v>
+        <v>-0.1316677123901971</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.937917968158504</v>
+        <v>1.964810346810909</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6558671254313716</v>
+        <v>-0.6510827894295853</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1641675091345824</v>
+        <v>0.173205600643738</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3759362004442104</v>
+        <v>-0.4078953858750134</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3363313044816799</v>
+        <v>0.3092174180734958</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4493756675797618</v>
+        <v>-0.4309936873301771</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3299488813818097</v>
+        <v>0.3543834615302218</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2047118539954478</v>
+        <v>-0.2293850882949273</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.157589114008389</v>
+        <v>1.111156418730034</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1585382132745127</v>
+        <v>0.1490358670812106</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.165949690158322</v>
+        <v>1.170385882577391</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.08602091613551097</v>
+        <v>-0.05091850323013832</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.948239701657232</v>
+        <v>0.9883868662392151</v>
       </c>
     </row>
     <row r="34">
